--- a/PWLPOS.v2/public/template_data/supplier.xlsx
+++ b/PWLPOS.v2/public/template_data/supplier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Tugas-WebLanjut\PWLPOS.v2\public\template_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3FBF908-DC05-4A5C-9494-1455ED6C5603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DF2292-549B-4438-BC12-74293C5625CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5A957E1-6B7F-4C4B-B59B-039C3D1EE4D2}"/>
   </bookViews>
@@ -45,31 +45,31 @@
     <t>supplier_alamat</t>
   </si>
   <si>
-    <t>SUP-009</t>
-  </si>
-  <si>
-    <t>SUP-010</t>
-  </si>
-  <si>
-    <t>SUP-011</t>
-  </si>
-  <si>
-    <t>PT Jaya Wijaya</t>
-  </si>
-  <si>
-    <t>CV Intan Permata</t>
-  </si>
-  <si>
-    <t>CV Sinar Abadi</t>
-  </si>
-  <si>
-    <t>Jl. Pisang Candi No. 5, Palembang</t>
-  </si>
-  <si>
-    <t>Jl. Soekarno Hatta No. 3, Malang</t>
-  </si>
-  <si>
-    <t>Jl. Kaliurang No. 12, Depok</t>
+    <t>SUP-013</t>
+  </si>
+  <si>
+    <t>SUP-014</t>
+  </si>
+  <si>
+    <t>PT Gudang Gula</t>
+  </si>
+  <si>
+    <t>Jl. Pisang Ambon No. 3, Medan</t>
+  </si>
+  <si>
+    <t>PT Wijaya Karya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV Jasa Marga </t>
+  </si>
+  <si>
+    <t>Jl. Soeparman No. 2, Depok</t>
+  </si>
+  <si>
+    <t>Jl. Bareng No. 6, Malang</t>
+  </si>
+  <si>
+    <t>SUP-012</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,35 +462,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PWLPOS.v2/public/template_data/supplier.xlsx
+++ b/PWLPOS.v2/public/template_data/supplier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Tugas-WebLanjut\PWLPOS.v2\public\template_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DF2292-549B-4438-BC12-74293C5625CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA49513-43F6-4678-A64D-C34084B1F2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5A957E1-6B7F-4C4B-B59B-039C3D1EE4D2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>supplier_kode</t>
   </si>
@@ -51,12 +51,6 @@
     <t>SUP-014</t>
   </si>
   <si>
-    <t>PT Gudang Gula</t>
-  </si>
-  <si>
-    <t>Jl. Pisang Ambon No. 3, Medan</t>
-  </si>
-  <si>
     <t>PT Wijaya Karya</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
   </si>
   <si>
     <t>Jl. Bareng No. 6, Malang</t>
-  </si>
-  <si>
-    <t>SUP-012</t>
   </si>
 </sst>
 </file>
@@ -436,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C785AE-A6DC-4057-A190-8EE1D3432235}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,35 +453,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
